--- a/산출물/요구사항 상세명세서/요구사항 상세명세서 통합진행중_0615.xlsx
+++ b/산출물/요구사항 상세명세서/요구사항 상세명세서 통합진행중_0615.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\바탕 화면\산출물\요구사항 상세명세서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\TextFile-main\산출물\요구사항 상세명세서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="12045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="72">
   <si>
     <t>notice_s_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -285,6 +285,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>제목, 내용, 작성자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+○ 고정글, 인기글에만 적용할 수 있도록 처리(관리자의 경우 전역 설정 가능하도록)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>관리자 로그인시 공지사항 등록 버튼 활성화
 제목 칸 내용 칸
 폰트 사이즈, 굵기, 기울이기, 밑줄, 색상 박스제작
@@ -293,23 +302,52 @@
 등록 후 등록되었습니다 문구 출력
 수정 후 수정되었습니다 문구 출력
 삭제 후 삭제되었습니다 문구 출력
-등록 로딩중 이미지 gif파일 돼지 춤추는 파일 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목, 내용, 작성자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>○ 제목 글자수 : 100글자 내외
+등록 로딩중 이미지 gif파일 돼지 춤추는 파일 등록
+○ 제목 글자수 : 100글자 내외
 ○ 본문 내용 글자수 : 5000자 내외
 ○ 시스템 등록 날짜 사용
 ○ 관리자만 글작성 가능 / 작성자 변경 불가(로그인 데이터로 자동 등록)
 ○ 공지사항 작성 등록 후 작성한 글 보여짐 
 ○ 수정, 삭제 버튼
 ○ alert 등록 되었습니다 / 수정되었습니다 / 삭제되었습니다 출력
-○ 공지사항 목록 리스트에 최근 작성 글 상단 등록
-○ 고정글, 인기글에만 적용할 수 있도록 처리(관리자의 경우 전역 설정 가능하도록)</t>
+○ 공지사항 목록 리스트에 최근 작성 글 상단 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice_m_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지글 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지글 수정 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목, 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 번호, 제목, 내용, 등록일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목, 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>○ 기존 글 제목, 내용 출력
+○ 아래 칸에 수정 영역 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,7 +502,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -474,9 +512,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -489,15 +524,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -506,27 +562,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -808,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -822,28 +857,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -863,21 +898,21 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="1:4" ht="234" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -897,51 +932,51 @@
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="9"/>
+      <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -961,33 +996,33 @@
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
     </row>
     <row r="18" spans="1:4" ht="150.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -995,57 +1030,57 @@
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="20"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="16"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="14"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="15"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="17"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9" t="s">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="9"/>
+      <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
@@ -1065,33 +1100,33 @@
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
     </row>
     <row r="29" spans="1:4" ht="150.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="14"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="15"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1099,54 +1134,54 @@
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="14"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="15"/>
     </row>
     <row r="32" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="14"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="15"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="17"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="17"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9" t="s">
+      <c r="B38" s="10"/>
+      <c r="C38" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="9"/>
+      <c r="D38" s="10"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
@@ -1166,33 +1201,33 @@
       <c r="A40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-    </row>
-    <row r="41" spans="1:4" ht="150.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+    </row>
+    <row r="41" spans="1:4" ht="177" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="14"/>
+      <c r="B41" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="15"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1200,59 +1235,59 @@
       <c r="A43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="14"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="15"/>
     </row>
     <row r="44" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="15"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="15"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="17"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="9"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="17"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="9"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="7"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="7"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9" t="s">
+      <c r="B49" s="10"/>
+      <c r="C49" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="9"/>
+      <c r="D49" s="10"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
@@ -1272,65 +1307,65 @@
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
     </row>
     <row r="52" spans="1:5" ht="150.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="15"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="4"/>
+      <c r="B53" s="3"/>
       <c r="C53" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="4"/>
+      <c r="D53" s="3"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="14"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="15"/>
     </row>
     <row r="55" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="14"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="15"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B56" s="15"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="17"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="9"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B57" s="15"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="17"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="9"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E59" t="s">
@@ -1338,14 +1373,14 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9" t="s">
+      <c r="B60" s="10"/>
+      <c r="C60" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D60" s="9"/>
+      <c r="D60" s="10"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
@@ -1365,33 +1400,33 @@
       <c r="A62" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
     </row>
     <row r="63" spans="1:5" ht="186.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B63" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="14"/>
+      <c r="B63" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" s="13"/>
+      <c r="D63" s="15"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1399,46 +1434,179 @@
       <c r="A65" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B65" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="14"/>
+      <c r="B65" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65" s="13"/>
+      <c r="D65" s="15"/>
     </row>
     <row r="66" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="10"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="14"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="15"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C67" s="16"/>
-      <c r="D67" s="17"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="9"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C68" s="16"/>
-      <c r="D68" s="17"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="9"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
+      <c r="A71" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71" s="10"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+    </row>
+    <row r="74" spans="1:4" ht="150.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C74" s="13"/>
+      <c r="D74" s="15"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C76" s="13"/>
+      <c r="D76" s="15"/>
+    </row>
+    <row r="77" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C77" s="13"/>
+      <c r="D77" s="15"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C78" s="8"/>
+      <c r="D78" s="9"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="57">
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
     <mergeCell ref="B57:D57"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="C60:D60"/>
@@ -1455,39 +1623,6 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/산출물/요구사항 상세명세서/요구사항 상세명세서 통합진행중_0615.xlsx
+++ b/산출물/요구사항 상세명세서/요구사항 상세명세서 통합진행중_0615.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\TextFile-main\산출물\요구사항 상세명세서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\바탕 화면\산출물\요구사항 상세명세서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="참고 URL" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="104">
   <si>
     <t>notice_s_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,10 +100,6 @@
   </si>
   <si>
     <t>글 번호, 제목, 등록일, 조회수, 추천수, 공지글, 인기글, 파일첨부 여부, 다운로드 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -221,89 +218,130 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>여기서부터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설성환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>notice_w_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>공지글 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지글 등록 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 번호, 제목, 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice_m_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지글 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지글 수정 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 번호, 제목, 등록일(수정일), 조회수, 추천수, 다운로드 수, (공지글, 인기글, 파일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회수, 추천수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송근호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천수, 조회수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice_r_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지 글 편집 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>공지 글 편집기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공지 글 편집 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice_w_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여기서부터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설성환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타이틀/내용 글자색, 타이틀/내용 글씨 스타일, 타이틀 배경색, 내용 글씨크기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice_w_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지글 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지글 등록 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글 번호, 제목, 내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설성환, 이인표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목, 내용, 작성자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-○ 고정글, 인기글에만 적용할 수 있도록 처리(관리자의 경우 전역 설정 가능하도록)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 로그인시 공지사항 등록 버튼 활성화
-제목 칸 내용 칸
-폰트 사이즈, 굵기, 기울이기, 밑줄, 색상 박스제작
-본문내용 작성시 등록버튼 활성화
-날짜, 작성자 변경 불가
-등록 후 등록되었습니다 문구 출력
-수정 후 수정되었습니다 문구 출력
-삭제 후 삭제되었습니다 문구 출력
-등록 로딩중 이미지 gif파일 돼지 춤추는 파일 등록
-○ 제목 글자수 : 100글자 내외
+    <t>타이틀/내용 글자색, 타이틀 글씨 굵기, 타이틀 배경색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 번호, 제목, 내용, 등록일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송근호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목, 내용, 수정일, 타이틀/내용 글자색, 타이틀 글씨 굵기, 타이틀 배경색, 고정글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>○ 기존 글 제목, 내용 출력
+○ 기존 글 출력 영역 밑에 수정 영역 출력
+○ 해당 글이 고정글인 경우, 고정글 해제 버튼 가시화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>○ 조회된 글의 제목을 클릭했을 때, 해당 글을 조회
+○ 파일이 첨부되어 있을 경우, 파일을 다운로드 받을 수 있도록 처리
+○ 글을 조회할 때마다 조회수 1씩 증가
+○ 추천 기능 처리 (하나의 글에 아이디 당 단 한 개의 추천만 가능하다, 추천 버튼 비활성화)
+○ 이전 글, 다음 글, 목록에 해당하는 기능 처리
+○ 관리자 아이디로 접속한 경우, 삭제 버튼 가시화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>○ 제목 글자수 : 100글자 내외
 ○ 본문 내용 글자수 : 5000자 내외
 ○ 시스템 등록 날짜 사용
 ○ 관리자만 글작성 가능 / 작성자 변경 불가(로그인 데이터로 자동 등록)
@@ -314,27 +352,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>notice_m_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지글 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지글 수정 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목, 내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글 번호, 제목, 내용, 등록일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목, 내용</t>
+    <t>설성환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목, 내용, 타이틀/내용 글자색, 타이틀 글씨 굵기, 타이틀 배경색, 고정글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목, 내용, 작성자, 타이틀/내용 글자색, 타이틀 글씨 굵기, 타이틀 배경색, 고정글</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -342,12 +368,152 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>○ 기존 글 제목, 내용 출력
-○ 아래 칸에 수정 영역 출력</t>
+    <t>○ 관리자 로그인시 공지사항 등록 버튼 활성화
+○ 제목 칸 내용 칸
+○ 폰트 사이즈, 굵기, 기울이기, 밑줄, 색상 박스제작
+○ 본문내용 작성시 등록버튼 활성화
+○ 날짜, 작성자 변경 불가
+○ 등록 후 등록되었습니다 문구 출력
+○ 수정 후 수정되었습니다 문구 출력
+○ 삭제 후 삭제되었습니다 문구 출력
+○ 등록 로딩중 이미지 gif파일 돼지 춤추는 파일 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice_w_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능명</t>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무영역</t>
+  </si>
+  <si>
+    <t>회원관리</t>
+  </si>
+  <si>
+    <t>요구사항ID</t>
+  </si>
+  <si>
+    <t>query_c_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">요구사항 명 </t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>query문 생성기</t>
+  </si>
+  <si>
+    <t>상세설명</t>
+  </si>
+  <si>
+    <t>제약사항</t>
+  </si>
+  <si>
+    <t xml:space="preserve">○입력항목확인,규칙 자리수 등 
+○출력 내용이 새로운 창에서 열리지 않게 만들어야함 </t>
+  </si>
+  <si>
+    <t>추후 협의 사항</t>
+  </si>
+  <si>
+    <t xml:space="preserve">○read, update, delet 쿼리문은 추후 협의 </t>
+  </si>
+  <si>
+    <t>중요도</t>
+  </si>
+  <si>
+    <t>중</t>
+  </si>
+  <si>
+    <t>난이도</t>
+  </si>
+  <si>
+    <t>입력 데이터</t>
+  </si>
+  <si>
+    <t>table 명 필요 column 개수 value;</t>
+  </si>
+  <si>
+    <t>출력 데이터</t>
+  </si>
+  <si>
+    <t>query문</t>
+  </si>
+  <si>
+    <t>저장 데이터</t>
+  </si>
+  <si>
+    <t>추후협의</t>
+  </si>
+  <si>
+    <r>
+      <t>○</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">javaScript를 사용해서 로직구성할 예정
+○Create(생성),Read(읽기),Update(갱신),Delete(삭제)데이터를 저장할 배열을 생성
+○input box 에서 데이터를 for문을 length 값을 사용해 배열에 저장한다. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+○</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">select box 에서 Create(생성),Read(읽기),Update(갱신),Delete(삭제)중 사용자가 선택한 목록의 value를 통해 조건문이 사용 될지 결정된다
+Ex)Create 문을 선택 하면 사용자가 지정한 행 length까지 for문을 돌려 쿼리문이 작성되게 만든다 . 
+create += create[i]; 형식으로 작성될 예정;
+마지막 create[i]는 +";" 붙여 준다.
+○화면에 출력되는 인터페이스는 추후 협의 한다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -355,7 +521,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,6 +547,14 @@
     </font>
     <font>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -502,7 +676,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -524,6 +698,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -536,31 +719,43 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -843,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -857,28 +1052,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="A1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -898,21 +1093,21 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" ht="234" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="B7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -932,139 +1127,139 @@
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="10"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
+      <c r="B17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" ht="150.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="B18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="16"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="17"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="15"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
+      <c r="B22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
@@ -1073,199 +1268,199 @@
       <c r="D24" s="5"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="10"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="13"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+      <c r="B28" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" ht="150.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="15"/>
+      <c r="B29" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="15"/>
+      <c r="B31" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
     </row>
     <row r="32" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="15"/>
+      <c r="B32" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="10"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
+      <c r="B40" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
     </row>
     <row r="41" spans="1:4" ht="177" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="15"/>
+      <c r="B41" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="15"/>
+      <c r="B43" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9"/>
     </row>
     <row r="44" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="15"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="9"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="12"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="12"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
@@ -1280,336 +1475,419 @@
       <c r="D48" s="5"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D49" s="10"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D49" s="13"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
+      <c r="B51" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:5" ht="150.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="15"/>
+      <c r="B52" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="9"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="3"/>
+      <c r="B53" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="C53" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="3"/>
+      <c r="D53" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="13"/>
-      <c r="D54" s="15"/>
-    </row>
-    <row r="55" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="9"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="15"/>
+      <c r="B55" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="9"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B56" s="7"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="9"/>
+      <c r="B56" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="11"/>
+      <c r="D56" s="12"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B57" s="7"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" s="11"/>
+      <c r="D57" s="12"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D60" s="10"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" s="13"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B62" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
+      <c r="B62" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
     </row>
     <row r="63" spans="1:5" ht="186.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B63" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C63" s="13"/>
-      <c r="D63" s="15"/>
+      <c r="B63" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" s="8"/>
+      <c r="D63" s="9"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B65" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C65" s="13"/>
-      <c r="D65" s="15"/>
+      <c r="B65" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="8"/>
+      <c r="D65" s="9"/>
     </row>
     <row r="66" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="15"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="9"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C67" s="8"/>
-      <c r="D67" s="9"/>
+      <c r="B67" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C67" s="11"/>
+      <c r="D67" s="12"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C68" s="8"/>
-      <c r="D68" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="12"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D71" s="10"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" s="13"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B73" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
+      <c r="B73" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" ht="150.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B74" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C74" s="13"/>
-      <c r="D74" s="15"/>
+      <c r="B74" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C74" s="8"/>
+      <c r="D74" s="9"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B76" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C76" s="13"/>
-      <c r="D76" s="15"/>
+      <c r="B76" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C76" s="8"/>
+      <c r="D76" s="9"/>
     </row>
     <row r="77" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C77" s="13"/>
-      <c r="D77" s="15"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="9"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B78" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C78" s="8"/>
-      <c r="D78" s="9"/>
+      <c r="B78" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C78" s="11"/>
+      <c r="D78" s="12"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B79" s="7"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C79" s="11"/>
+      <c r="D79" s="12"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" s="13"/>
+      <c r="C82" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D82" s="13"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D83" s="22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B84" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
+    </row>
+    <row r="85" spans="1:4" ht="194.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+    </row>
+    <row r="86" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C87" s="24"/>
+      <c r="D87" s="25"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D88" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C90" s="23"/>
+      <c r="D90" s="23"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B91" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
+  <mergeCells count="64">
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B86:D86"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="C49:D49"/>
@@ -1623,9 +1901,96 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B76:D76"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="3" max="3" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f>Sheet2!B39</f>
+        <v>notice_w_03</v>
+      </c>
+      <c r="B2" t="str">
+        <f>Sheet2!D39</f>
+        <v>공지 글 편집기</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>